--- a/Donnees/Statistiques Economiques/Commerce_exterieur.xlsx
+++ b/Donnees/Statistiques Economiques/Commerce_exterieur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Annuaire\Chapitres_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ansade_Project\Donnees\Statistiques Economiques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34EA5AB-B4E5-4039-A930-8052E3D7B3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD4ECE-92F6-4B80-B1B5-0BD3D6747E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taux de change($)" sheetId="2" r:id="rId1"/>
@@ -1594,17 +1594,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -2584,20 +2573,6 @@
     <t>Importations de la Mauritanie par type de produits en million MRU</t>
   </si>
   <si>
-    <r>
-      <t>Source : Direction Générale des Douanes/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="18"/>
-        <rFont val="Sakkal Majalla"/>
-      </rPr>
-      <t>SYDONIA</t>
-    </r>
-  </si>
-  <si>
     <t>CoréeRépublique de</t>
   </si>
   <si>
@@ -2611,6 +2586,9 @@
   </si>
   <si>
     <t xml:space="preserve">Importation des produits alimentaires,  en million MRU </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Direction Générale des Douanes/SYDONIA</t>
   </si>
 </sst>
 </file>
@@ -33115,8 +33093,8 @@
   </sheetPr>
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34395,7 +34373,7 @@
   <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35435,7 +35413,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView zoomScale="41" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37791,8 +37769,8 @@
   </sheetPr>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40393,7 +40371,7 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView zoomScale="52" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41628,7 +41606,7 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView zoomScale="52" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42863,7 +42841,7 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44099,7 +44077,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44759,7 +44737,7 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44843,10 +44821,10 @@
     </row>
     <row r="2" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D2" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -44905,10 +44883,10 @@
     </row>
     <row r="3" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D3" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -44970,10 +44948,10 @@
     </row>
     <row r="4" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D4" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -45035,10 +45013,10 @@
     </row>
     <row r="5" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D5" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -45100,10 +45078,10 @@
     </row>
     <row r="6" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D6" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -45165,10 +45143,10 @@
     </row>
     <row r="7" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D7" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -45230,10 +45208,10 @@
     </row>
     <row r="8" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D8" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -45295,10 +45273,10 @@
     </row>
     <row r="9" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D9" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -45360,10 +45338,10 @@
     </row>
     <row r="10" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D10" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -45425,10 +45403,10 @@
     </row>
     <row r="11" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D11" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -45490,10 +45468,10 @@
     </row>
     <row r="12" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D12" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -45555,10 +45533,10 @@
     </row>
     <row r="13" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D13" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -45620,10 +45598,10 @@
     </row>
     <row r="14" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D14" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -45685,10 +45663,10 @@
     </row>
     <row r="15" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D15" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -45750,10 +45728,10 @@
     </row>
     <row r="16" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D16" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -45820,10 +45798,10 @@
     </row>
     <row r="17" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D17" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -45885,10 +45863,10 @@
     </row>
     <row r="18" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D18" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -45950,10 +45928,10 @@
     </row>
     <row r="19" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D19" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -46015,10 +45993,10 @@
     </row>
     <row r="20" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D20" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -46080,10 +46058,10 @@
     </row>
     <row r="21" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D21" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -46145,10 +46123,10 @@
     </row>
     <row r="22" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D22" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -46210,10 +46188,10 @@
     </row>
     <row r="23" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D23" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -46275,10 +46253,10 @@
     </row>
     <row r="24" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D24" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -46340,10 +46318,10 @@
     </row>
     <row r="25" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D25" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -46405,10 +46383,10 @@
     </row>
     <row r="26" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D26" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -46420,7 +46398,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J26" s="108" t="s">
         <v>25</v>
@@ -46470,10 +46448,10 @@
     </row>
     <row r="27" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D27" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -46535,10 +46513,10 @@
     </row>
     <row r="28" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D28" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -46600,10 +46578,10 @@
     </row>
     <row r="29" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D29" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -46665,10 +46643,10 @@
     </row>
     <row r="30" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D30" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -46730,10 +46708,10 @@
     </row>
     <row r="31" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D31" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -46795,10 +46773,10 @@
     </row>
     <row r="32" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D32" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -46860,10 +46838,10 @@
     </row>
     <row r="33" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D33" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -46925,10 +46903,10 @@
     </row>
     <row r="34" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D34" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -46990,10 +46968,10 @@
     </row>
     <row r="35" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D35" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -47055,10 +47033,10 @@
     </row>
     <row r="36" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D36" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -47120,10 +47098,10 @@
     </row>
     <row r="37" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D37" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -47185,10 +47163,10 @@
     </row>
     <row r="38" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D38" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -47250,10 +47228,10 @@
     </row>
     <row r="39" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D39" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -47315,10 +47293,10 @@
     </row>
     <row r="40" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D40" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -47380,10 +47358,10 @@
     </row>
     <row r="41" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D41" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -47445,10 +47423,10 @@
     </row>
     <row r="42" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D42" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -47510,10 +47488,10 @@
     </row>
     <row r="43" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D43" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -47575,10 +47553,10 @@
     </row>
     <row r="44" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D44" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -47640,10 +47618,10 @@
     </row>
     <row r="45" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D45" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F45">
         <v>44</v>
@@ -47705,10 +47683,10 @@
     </row>
     <row r="46" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D46" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -47770,10 +47748,10 @@
     </row>
     <row r="47" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D47" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F47">
         <v>46</v>
@@ -47835,10 +47813,10 @@
     </row>
     <row r="48" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D48" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -47900,10 +47878,10 @@
     </row>
     <row r="49" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D49" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F49">
         <v>48</v>
@@ -47965,10 +47943,10 @@
     </row>
     <row r="50" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D50" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F50">
         <v>49</v>
@@ -48030,10 +48008,10 @@
     </row>
     <row r="51" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D51" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -48095,10 +48073,10 @@
     </row>
     <row r="52" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D52" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F52">
         <v>51</v>
@@ -48160,10 +48138,10 @@
     </row>
     <row r="53" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D53" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F53">
         <v>52</v>
@@ -48225,10 +48203,10 @@
     </row>
     <row r="54" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D54" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F54">
         <v>53</v>
@@ -48240,7 +48218,7 @@
         <v>34</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J54" s="108" t="s">
         <v>25</v>
@@ -48290,10 +48268,10 @@
     </row>
     <row r="55" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D55" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -48355,10 +48333,10 @@
     </row>
     <row r="56" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D56" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F56">
         <v>55</v>
@@ -48420,10 +48398,10 @@
     </row>
     <row r="57" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D57" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F57">
         <v>56</v>
@@ -48485,10 +48463,10 @@
     </row>
     <row r="58" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D58" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F58">
         <v>57</v>
@@ -48550,10 +48528,10 @@
     </row>
     <row r="59" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D59" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -48615,10 +48593,10 @@
     </row>
     <row r="60" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D60" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F60">
         <v>59</v>
@@ -48680,10 +48658,10 @@
     </row>
     <row r="61" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D61" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F61">
         <v>60</v>
@@ -48745,10 +48723,10 @@
     </row>
     <row r="62" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D62" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F62">
         <v>61</v>
@@ -48818,7 +48796,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48903,10 +48881,10 @@
     </row>
     <row r="2" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -48965,10 +48943,10 @@
     </row>
     <row r="3" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D3" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -49030,10 +49008,10 @@
     </row>
     <row r="4" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D4" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -49095,10 +49073,10 @@
     </row>
     <row r="5" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D5" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -49160,10 +49138,10 @@
     </row>
     <row r="6" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D6" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -49225,10 +49203,10 @@
     </row>
     <row r="7" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D7" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -49290,10 +49268,10 @@
     </row>
     <row r="8" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D8" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -49355,10 +49333,10 @@
     </row>
     <row r="9" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D9" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -49420,10 +49398,10 @@
     </row>
     <row r="10" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D10" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -49485,10 +49463,10 @@
     </row>
     <row r="11" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -49550,10 +49528,10 @@
     </row>
     <row r="12" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -49615,10 +49593,10 @@
     </row>
     <row r="13" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D13" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -49680,10 +49658,10 @@
     </row>
     <row r="14" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D14" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -49745,10 +49723,10 @@
     </row>
     <row r="15" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D15" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -49810,10 +49788,10 @@
     </row>
     <row r="16" spans="1:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D16" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -49875,10 +49853,10 @@
     </row>
     <row r="17" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D17" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -49940,10 +49918,10 @@
     </row>
     <row r="18" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D18" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -50005,10 +49983,10 @@
     </row>
     <row r="19" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D19" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -50070,10 +50048,10 @@
     </row>
     <row r="20" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D20" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -50135,10 +50113,10 @@
     </row>
     <row r="21" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D21" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -50200,10 +50178,10 @@
     </row>
     <row r="22" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D22" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -50265,10 +50243,10 @@
     </row>
     <row r="23" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D23" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -50330,10 +50308,10 @@
     </row>
     <row r="24" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D24" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -50395,10 +50373,10 @@
     </row>
     <row r="25" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D25" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -50460,10 +50438,10 @@
     </row>
     <row r="26" spans="4:24" ht="26.4" x14ac:dyDescent="0.7">
       <c r="D26" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -50475,7 +50453,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J26" s="116" t="s">
         <v>25</v>
@@ -50536,7 +50514,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView zoomScale="49" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51414,7 +51392,7 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
